--- a/arquivos/agenda.xlsx
+++ b/arquivos/agenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Programacao\Projetos\PYTHON\marca-consulta\marca-consulta\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TI\Documents\Programacao\Projetos\PYTHON\marca-consulta\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="98">
   <si>
     <t>SEGUNDA</t>
   </si>
@@ -322,38 +322,17 @@
     <t>Estagiario teste</t>
   </si>
   <si>
-    <t>fatima</t>
-  </si>
-  <si>
-    <t>bernardo</t>
-  </si>
-  <si>
-    <t>toinha</t>
-  </si>
-  <si>
-    <t>claudio</t>
-  </si>
-  <si>
-    <t>tiago</t>
-  </si>
-  <si>
-    <t>paiva</t>
-  </si>
-  <si>
-    <t>ronildo</t>
-  </si>
-  <si>
-    <t>fabiola</t>
-  </si>
-  <si>
-    <t>lucas</t>
+    <t>vicente</t>
+  </si>
+  <si>
+    <t>estagiario pé de chinelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +421,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -558,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -635,6 +622,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E822"/>
+  <dimension ref="A1:G822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +958,7 @@
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -979,7 +967,7 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -996,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1013,142 +1001,89 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="12"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="9"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
@@ -1165,16 +1100,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1125,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
